--- a/public/assets/SMS Sales Order Upload Format.xlsx
+++ b/public/assets/SMS Sales Order Upload Format.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD87F4-33D3-4362-83E9-8B8968D80266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F6A41-135F-4F4D-B42D-E70C8C0B65C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -144,19 +144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -168,11 +155,135 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </right>
       <top style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -183,6 +294,21 @@
     <border>
       <left style="thin">
         <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -194,56 +320,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -252,13 +333,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -266,7 +364,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -274,8 +372,8 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -283,59 +381,29 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -343,35 +411,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,215 +752,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:XEO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3 16356:16369" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="11">
         <v>10000312333</v>
       </c>
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="12"/>
+      <c r="XEB1" s="8"/>
+      <c r="XEC1" s="7"/>
+      <c r="XED1" s="7"/>
+      <c r="XEE1" s="7"/>
+      <c r="XEF1" s="7"/>
+      <c r="XEG1" s="7"/>
+      <c r="XEH1" s="7"/>
+      <c r="XEI1" s="7"/>
+      <c r="XEJ1" s="7"/>
+      <c r="XEK1" s="7"/>
+      <c r="XEL1" s="7"/>
+      <c r="XEM1" s="7"/>
+      <c r="XEN1" s="7"/>
+      <c r="XEO1" s="9"/>
+    </row>
+    <row r="2" spans="1:3 16356:16369" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3 16356:16369" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="4">
         <v>45168</v>
       </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:3" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3 16356:16369" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3 16356:16369" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="3">
         <v>1098</v>
       </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3 16356:16369" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="2">
         <v>109212</v>
       </c>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3 16356:16369" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3 16356:16369" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:3 16356:16369" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:3 16356:16369" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:3 16356:16369" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="29">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:3 16356:16369" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:3 16356:16369" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="29">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:3 16356:16369" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:3 16356:16369" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3 16356:16369" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
